--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Mystifly.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Mystifly.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Air_Mystifly_OneWay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t>Description</t>
   </si>
@@ -72,9 +72,6 @@
     <t>MYSTIFLY air oneway booking for INTERNATIONAL location for 1 Adult with OnAccount payment mode.</t>
   </si>
   <si>
-    <t>LOGIN|Search|AddToCart|CHECKOUTTRIP|ENTERPAXINFO|CONFIRMPAXINFO|PAYNOW</t>
-  </si>
-  <si>
     <t>OneWay</t>
   </si>
   <si>
@@ -93,16 +90,7 @@
     <t>Registered</t>
   </si>
   <si>
-    <t>MYSTIFLY air oneway booking for INTERNATIONAL location 1 Adult and 1 child with OnAccount payment mode.</t>
-  </si>
-  <si>
     <t>LOGIN|Search|AddToCart|CHECKOUTTRIP|ENTERPAXINFO|CONFIRMPAXINFO</t>
-  </si>
-  <si>
-    <t>MYSTIFLY air oneway booking for INTERNATIONAL location for 1 adult and 1 infant with OnAccount payment mode.</t>
-  </si>
-  <si>
-    <t>MYSTIFLY air oneway booking for INTERNATIONAL location for 1 adult .1 child and 1 infant with OnAccount payment mode.</t>
   </si>
   <si>
     <t>MYSTIFLY air round trip booking for INTERNATIONAL location for 1 Adult with OnAccount payment mode.</t>
@@ -709,6 +697,36 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1048,48 +1066,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1413,16 +1389,28 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1436,26 +1424,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="54" tableBorderDxfId="55">
-  <autoFilter ref="A1:Q5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53">
+  <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="53"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="52"/>
-    <tableColumn id="3" name="TripType" dataDxfId="51"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="50"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="49"/>
-    <tableColumn id="6" name="Adults" dataDxfId="48"/>
-    <tableColumn id="7" name="Infants" dataDxfId="47"/>
-    <tableColumn id="8" name="Children" dataDxfId="46"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="45"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="44"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="43"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="42"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="41"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="40"/>
-    <tableColumn id="15" name="UserType" dataDxfId="39"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="38"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="37"/>
+    <tableColumn id="1" name="Description" dataDxfId="52"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="51"/>
+    <tableColumn id="3" name="TripType" dataDxfId="50"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="49"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="48"/>
+    <tableColumn id="6" name="Adults" dataDxfId="47"/>
+    <tableColumn id="7" name="Infants" dataDxfId="46"/>
+    <tableColumn id="8" name="Children" dataDxfId="45"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="44"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="43"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="42"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="41"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="40"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="39"/>
+    <tableColumn id="15" name="UserType" dataDxfId="38"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="37"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1465,30 +1453,30 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="33"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="32"/>
-    <tableColumn id="3" name="TripType" dataDxfId="31"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="30"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="29"/>
-    <tableColumn id="6" name="Adults" dataDxfId="28"/>
-    <tableColumn id="7" name="Infants" dataDxfId="27"/>
-    <tableColumn id="8" name="Children" dataDxfId="26"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="25"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="24"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="23"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="22"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="21"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="20"/>
-    <tableColumn id="15" name="UserType" dataDxfId="19"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="18"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="17"/>
+    <tableColumn id="1" name="Description" dataDxfId="35"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="34"/>
+    <tableColumn id="3" name="TripType" dataDxfId="33"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="32"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="31"/>
+    <tableColumn id="6" name="Adults" dataDxfId="30"/>
+    <tableColumn id="7" name="Infants" dataDxfId="29"/>
+    <tableColumn id="8" name="Children" dataDxfId="28"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="27"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="26"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="25"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="24"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="23"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="22"/>
+    <tableColumn id="15" name="UserType" dataDxfId="21"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="20"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="34" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="16"/>
@@ -1800,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,13 +1872,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="16">
         <v>25</v>
@@ -1908,164 +1896,23 @@
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="15" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="18"/>
-    </row>
-    <row r="3" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="16">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="18"/>
-    </row>
-    <row r="4" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="16">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="18"/>
-    </row>
-    <row r="5" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="16">
-        <v>25</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2079,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,19 +2005,19 @@
     </row>
     <row r="2" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -2185,20 +2032,20 @@
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="15" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="O2" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="18"/>
@@ -2215,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,19 +2141,19 @@
     </row>
     <row r="2" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -2321,20 +2168,20 @@
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="15" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="7"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Mystifly.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Mystifly.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="34">
   <si>
     <t>Description</t>
   </si>
@@ -81,12 +81,6 @@
     <t>Economy</t>
   </si>
   <si>
-    <t>Creditcard</t>
-  </si>
-  <si>
-    <t>Mystifly</t>
-  </si>
-  <si>
     <t>Registered</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>25|32</t>
   </si>
   <si>
-    <t>Preferred</t>
-  </si>
-  <si>
     <t>MYSTIFLY air MULTICITY booking for INTERNATIONAL location for 1 Adult with OnAccount payment mode.</t>
   </si>
   <si>
@@ -114,7 +105,19 @@
     <t>SIN-BKK|BKK-SIN|SIN-HKG</t>
   </si>
   <si>
-    <t>25|32|40</t>
+    <t>RoviaBucks</t>
+  </si>
+  <si>
+    <t>MYSTIFLY air oneway booking for INTERNATIONAL location 1 Adult and 1 child with OnAccount payment mode.</t>
+  </si>
+  <si>
+    <t>MYSTIFLY air oneway booking for INTERNATIONAL location for 1 adult and 1 infant with OnAccount payment mode.</t>
+  </si>
+  <si>
+    <t>MYSTIFLY air oneway booking for INTERNATIONAL location for 1 adult .1 child and 1 infant with OnAccount payment mode.</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -163,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -235,17 +238,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -291,19 +283,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="4"/>
       </left>
       <right style="thin">
@@ -319,13 +298,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -337,35 +316,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -382,7 +352,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -697,42 +669,14 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1071,7 +1015,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1154,7 +1100,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1226,41 +1174,47 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1327,7 +1281,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1382,10 +1338,42 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1424,26 +1412,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53">
-  <autoFilter ref="A1:Q2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53">
+  <autoFilter ref="A1:Q5"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="52"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="51"/>
-    <tableColumn id="3" name="TripType" dataDxfId="50"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="49"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="48"/>
-    <tableColumn id="6" name="Adults" dataDxfId="47"/>
-    <tableColumn id="7" name="Infants" dataDxfId="46"/>
-    <tableColumn id="8" name="Children" dataDxfId="45"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="44"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="43"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="42"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="41"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="40"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="39"/>
-    <tableColumn id="15" name="UserType" dataDxfId="38"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="37"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="36"/>
+    <tableColumn id="1" name="Description" dataDxfId="50"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="49"/>
+    <tableColumn id="3" name="TripType" dataDxfId="48"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="47"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="46"/>
+    <tableColumn id="6" name="Adults" dataDxfId="45"/>
+    <tableColumn id="7" name="Infants" dataDxfId="44"/>
+    <tableColumn id="8" name="Children" dataDxfId="43"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="42"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="41"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="40"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="39"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="38"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="37"/>
+    <tableColumn id="15" name="UserType" dataDxfId="36"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="35"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1453,30 +1441,30 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="35"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="34"/>
-    <tableColumn id="3" name="TripType" dataDxfId="33"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="32"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="31"/>
-    <tableColumn id="6" name="Adults" dataDxfId="30"/>
-    <tableColumn id="7" name="Infants" dataDxfId="29"/>
-    <tableColumn id="8" name="Children" dataDxfId="28"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="27"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="26"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="25"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="24"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="23"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="22"/>
-    <tableColumn id="15" name="UserType" dataDxfId="21"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="20"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="19"/>
+    <tableColumn id="1" name="Description" dataDxfId="33"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="32"/>
+    <tableColumn id="3" name="TripType" dataDxfId="31"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="30"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="29"/>
+    <tableColumn id="6" name="Adults" dataDxfId="28"/>
+    <tableColumn id="7" name="Infants" dataDxfId="27"/>
+    <tableColumn id="8" name="Children" dataDxfId="26"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="25"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="24"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="23"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="22"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="21"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="20"/>
+    <tableColumn id="15" name="UserType" dataDxfId="19"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="18"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="52" tableBorderDxfId="51">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="16"/>
@@ -1788,11 +1776,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1827,7 +1813,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1839,13 +1825,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -1867,20 +1853,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>25</v>
       </c>
       <c r="F2" s="5">
@@ -1892,29 +1878,167 @@
       <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="16" t="b">
+      <c r="I2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="15" t="b">
+      <c r="K2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="18"/>
+      <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="14">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="14">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="14">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
+      <formula1>$I$118:$I$119</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1927,7 +2051,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,7 +2087,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1975,13 +2099,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -2003,21 +2127,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>25</v>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>27</v>
+      <c r="E2" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -2028,29 +2152,32 @@
       <c r="H2" s="6">
         <v>0</v>
       </c>
-      <c r="I2" s="16" t="b">
+      <c r="I2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="15" t="b">
+      <c r="K2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="6"/>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="18"/>
+      <c r="Q2" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>$I$118:$I$119</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2063,7 +2190,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,74 +2213,74 @@
     <col min="17" max="17" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>29</v>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -2164,29 +2291,32 @@
       <c r="H2" s="6">
         <v>0</v>
       </c>
-      <c r="I2" s="16" t="b">
+      <c r="I2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="15" t="b">
+      <c r="K2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="6"/>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
+      <c r="Q2" s="6"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>$I$118:$I$119</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Mystifly.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Mystifly.xlsx
@@ -117,7 +117,7 @@
     <t>MYSTIFLY air oneway booking for INTERNATIONAL location for 1 adult .1 child and 1 infant with OnAccount payment mode.</t>
   </si>
   <si>
-    <t>25</t>
+    <t>25|40|50</t>
   </si>
 </sst>
 </file>
@@ -669,6 +669,36 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1347,36 +1377,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1415,23 +1415,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53">
   <autoFilter ref="A1:Q5"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="50"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="49"/>
-    <tableColumn id="3" name="TripType" dataDxfId="48"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="47"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="46"/>
-    <tableColumn id="6" name="Adults" dataDxfId="45"/>
-    <tableColumn id="7" name="Infants" dataDxfId="44"/>
-    <tableColumn id="8" name="Children" dataDxfId="43"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="42"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="41"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="40"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="39"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="38"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="37"/>
-    <tableColumn id="15" name="UserType" dataDxfId="36"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="35"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="34"/>
+    <tableColumn id="1" name="Description" dataDxfId="52"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="51"/>
+    <tableColumn id="3" name="TripType" dataDxfId="50"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="49"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="48"/>
+    <tableColumn id="6" name="Adults" dataDxfId="47"/>
+    <tableColumn id="7" name="Infants" dataDxfId="46"/>
+    <tableColumn id="8" name="Children" dataDxfId="45"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="44"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="43"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="42"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="41"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="40"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="39"/>
+    <tableColumn id="15" name="UserType" dataDxfId="38"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="37"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1441,30 +1441,30 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="33"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="32"/>
-    <tableColumn id="3" name="TripType" dataDxfId="31"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="30"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="29"/>
-    <tableColumn id="6" name="Adults" dataDxfId="28"/>
-    <tableColumn id="7" name="Infants" dataDxfId="27"/>
-    <tableColumn id="8" name="Children" dataDxfId="26"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="25"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="24"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="23"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="22"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="21"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="20"/>
-    <tableColumn id="15" name="UserType" dataDxfId="19"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="18"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="17"/>
+    <tableColumn id="1" name="Description" dataDxfId="35"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="34"/>
+    <tableColumn id="3" name="TripType" dataDxfId="33"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="32"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="31"/>
+    <tableColumn id="6" name="Adults" dataDxfId="30"/>
+    <tableColumn id="7" name="Infants" dataDxfId="29"/>
+    <tableColumn id="8" name="Children" dataDxfId="28"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="27"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="26"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="25"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="24"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="23"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="22"/>
+    <tableColumn id="15" name="UserType" dataDxfId="21"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="20"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="52" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="16"/>
@@ -2190,7 +2190,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Mystifly.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Mystifly.xlsx
@@ -81,9 +81,6 @@
     <t>Economy</t>
   </si>
   <si>
-    <t>Registered</t>
-  </si>
-  <si>
     <t>LOGIN|Search|AddToCart|CHECKOUTTRIP|ENTERPAXINFO|CONFIRMPAXINFO</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>25|40|50</t>
+  </si>
+  <si>
+    <t>Preferred</t>
   </si>
 </sst>
 </file>
@@ -355,41 +355,56 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -732,21 +747,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1455,35 +1455,35 @@
     <tableColumn id="12" name="AirLines" dataDxfId="24"/>
     <tableColumn id="13" name="PaymentMode" dataDxfId="23"/>
     <tableColumn id="14" name="Supplier" dataDxfId="22"/>
-    <tableColumn id="15" name="UserType" dataDxfId="21"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="20"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="19"/>
+    <tableColumn id="15" name="UserType" dataDxfId="1"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="21"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="16"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
-    <tableColumn id="3" name="TripType" dataDxfId="14"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="13"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="12"/>
-    <tableColumn id="6" name="Adults" dataDxfId="11"/>
-    <tableColumn id="7" name="Infants" dataDxfId="10"/>
-    <tableColumn id="8" name="Children" dataDxfId="9"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="8"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="7"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="6"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="5"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="4"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="3"/>
-    <tableColumn id="15" name="UserType" dataDxfId="2"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
+    <tableColumn id="1" name="Description" dataDxfId="17"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="16"/>
+    <tableColumn id="3" name="TripType" dataDxfId="15"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="14"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="13"/>
+    <tableColumn id="6" name="Adults" dataDxfId="12"/>
+    <tableColumn id="7" name="Infants" dataDxfId="11"/>
+    <tableColumn id="8" name="Children" dataDxfId="10"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="9"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="8"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="7"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="6"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="5"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="4"/>
+    <tableColumn id="15" name="UserType" dataDxfId="0"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="3"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1778,7 +1778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1858,7 +1860,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>18</v>
@@ -1889,21 +1891,21 @@
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>18</v>
@@ -1934,21 +1936,21 @@
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>18</v>
@@ -1979,21 +1981,21 @@
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>18</v>
@@ -2024,11 +2026,11 @@
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -2050,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,19 +2131,19 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -2163,11 +2165,11 @@
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -2189,8 +2191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,19 +2270,19 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -2302,11 +2304,11 @@
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Mystifly.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Mystifly.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
   <si>
     <t>Description</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Preferred</t>
+  </si>
+  <si>
+    <t>LOGIN|Search</t>
   </si>
 </sst>
 </file>
@@ -355,56 +358,41 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -747,6 +735,21 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1455,35 +1458,35 @@
     <tableColumn id="12" name="AirLines" dataDxfId="24"/>
     <tableColumn id="13" name="PaymentMode" dataDxfId="23"/>
     <tableColumn id="14" name="Supplier" dataDxfId="22"/>
-    <tableColumn id="15" name="UserType" dataDxfId="1"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="21"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="20"/>
+    <tableColumn id="15" name="UserType" dataDxfId="21"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="20"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="17"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="16"/>
-    <tableColumn id="3" name="TripType" dataDxfId="15"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="14"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="13"/>
-    <tableColumn id="6" name="Adults" dataDxfId="12"/>
-    <tableColumn id="7" name="Infants" dataDxfId="11"/>
-    <tableColumn id="8" name="Children" dataDxfId="10"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="9"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="8"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="7"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="6"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="5"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="4"/>
-    <tableColumn id="15" name="UserType" dataDxfId="0"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="3"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="2"/>
+    <tableColumn id="1" name="Description" dataDxfId="16"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
+    <tableColumn id="3" name="TripType" dataDxfId="14"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="13"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="12"/>
+    <tableColumn id="6" name="Adults" dataDxfId="11"/>
+    <tableColumn id="7" name="Infants" dataDxfId="10"/>
+    <tableColumn id="8" name="Children" dataDxfId="9"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="8"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="7"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="6"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="5"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="4"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="3"/>
+    <tableColumn id="15" name="UserType" dataDxfId="2"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2052,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,7 +2137,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>23</v>
@@ -2191,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,7 +2276,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>26</v>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Mystifly.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Mystifly.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="36">
   <si>
     <t>Description</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>LOGIN|Search</t>
+  </si>
+  <si>
+    <t>Mystifly</t>
   </si>
 </sst>
 </file>
@@ -1781,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,7 +1899,9 @@
       <c r="M2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="7"/>
+      <c r="N2" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="O2" s="8" t="s">
         <v>33</v>
       </c>
@@ -1941,7 +1946,9 @@
       <c r="M3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="O3" s="8" t="s">
         <v>33</v>
       </c>
@@ -1986,7 +1993,9 @@
       <c r="M4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="O4" s="8" t="s">
         <v>33</v>
       </c>
@@ -2031,7 +2040,9 @@
       <c r="M5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="O5" s="8" t="s">
         <v>33</v>
       </c>
@@ -2055,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,7 +2181,9 @@
       <c r="M2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="7"/>
+      <c r="N2" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="O2" s="8" t="s">
         <v>33</v>
       </c>
@@ -2194,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,7 +2322,9 @@
       <c r="M2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="7"/>
+      <c r="N2" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="O2" s="8" t="s">
         <v>33</v>
       </c>
